--- a/데이터베이스설계/샘플-학사정보데이터(2022-11-02).xlsx
+++ b/데이터베이스설계/샘플-학사정보데이터(2022-11-02).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\DBMS\데이터베이스설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7760845-6AA8-4DF2-82FD-6DF357B0B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE52B-64F0-40D7-88C0-D80EDD25276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보샘플" sheetId="2" r:id="rId1"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -2327,7 +2327,7 @@
     <col min="3" max="3" width="22.625" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="23.625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="79" style="22" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="22" customWidth="1"/>
     <col min="8" max="16384" width="9" style="22"/>
   </cols>
@@ -4363,7 +4363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016F2F97-C268-44B0-A387-84D019AD4716}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
